--- a/2016년 재료비 10월/마술 재료비.xlsx
+++ b/2016년 재료비 10월/마술 재료비.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="67">
   <si>
     <t>*주야</t>
   </si>
@@ -283,7 +283,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -291,25 +291,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -319,9 +306,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -638,1233 +622,1101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12" style="12" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12" style="11" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8">
+      <c r="D2" s="7">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="F2" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8">
+      <c r="D3" s="7">
         <v>23</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
+      <c r="F3" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="8">
+      <c r="D4" s="7">
         <v>2</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
+      <c r="F4" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="8">
+      <c r="D5" s="7">
         <v>20</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="F5" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="8">
+      <c r="D6" s="7">
         <v>21</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
+      <c r="F6" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="8">
+      <c r="D7" s="7">
         <v>2</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="F7" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="8">
+      <c r="D8" s="7">
         <v>9</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
+      <c r="F8" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="8">
+      <c r="D9" s="7">
         <v>23</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
+      <c r="F9" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="8">
+      <c r="D10" s="7">
         <v>13</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="F10" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="8">
+      <c r="D11" s="7">
         <v>23</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
+      <c r="F11" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="8">
-        <v>7</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="D12" s="7">
+        <v>7</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
+      <c r="F12" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="8">
+      <c r="D13" s="7">
         <v>9</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
+      <c r="F13" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="8">
+      <c r="D14" s="7">
         <v>24</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
+      <c r="F14" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="8">
+      <c r="D15" s="7">
         <v>6</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H15" s="6" t="s">
+      <c r="F15" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="8">
+      <c r="D16" s="7">
         <v>16</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H16" s="6" t="s">
+      <c r="F16" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="8">
+      <c r="D17" s="7">
         <v>17</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="F17" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="8">
+      <c r="D18" s="7">
         <v>6</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
+      <c r="F18" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="8">
+      <c r="D19" s="7">
         <v>14</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
+      <c r="F19" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="8">
+      <c r="D20" s="7">
         <v>15</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
+      <c r="F20" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="8">
+      <c r="D21" s="7">
         <v>22</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H21" s="6" t="s">
+      <c r="F21" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="8">
+      <c r="D22" s="7">
         <v>18</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
+      <c r="F22" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="8">
+      <c r="D23" s="7">
         <v>23</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
+      <c r="F23" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="8">
-        <v>35</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="D24" s="7">
+        <v>28</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
+      <c r="F24" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="8">
+      <c r="D25" s="7">
         <v>4</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="E25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
+      <c r="F25" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="8">
-        <v>7</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="D26" s="7">
+        <v>7</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
+      <c r="F26" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="8">
+      <c r="D27" s="7">
         <v>8</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="E27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
+      <c r="F27" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="8">
+      <c r="D28" s="7">
         <v>16</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="E28" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
+      <c r="F28" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="8">
-        <v>7</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="D29" s="7">
+        <v>7</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
+      <c r="F29" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="8">
+      <c r="D30" s="7">
         <v>2</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="E30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H30" s="6" t="s">
+      <c r="F30" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="8" t="s">
+    <row r="31" spans="1:7">
+      <c r="A31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="8">
+      <c r="D31" s="7">
         <v>23</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
+      <c r="F31" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="8">
+      <c r="D32" s="7">
         <v>4</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="E32" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
+      <c r="F32" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="8">
+      <c r="D33" s="7">
         <v>14</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="E33" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
+      <c r="F33" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="8">
+      <c r="D34" s="7">
         <v>24</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="E34" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G34" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1" t="s">
+      <c r="F34" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="8">
+      <c r="D35" s="7">
         <v>14</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="E35" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G35" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H35" s="6" t="s">
+      <c r="F35" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:7">
+      <c r="A36" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="8">
+      <c r="D36" s="7">
         <v>19</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="E36" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1" t="s">
+      <c r="F36" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="8">
+      <c r="D37" s="7">
         <v>17</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="E37" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G37" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1" t="s">
+      <c r="F37" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="8">
+      <c r="D38" s="7">
         <v>4</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="E38" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G38" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="8" t="s">
+      <c r="F38" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="8">
+      <c r="D39" s="7">
         <v>24</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="E39" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G39" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
+      <c r="F39" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="8">
+      <c r="D40" s="7">
         <v>13</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="E40" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G40" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="8" t="s">
+      <c r="F40" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="8">
+      <c r="D41" s="7">
         <v>6</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="E41" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G41" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="7" t="s">
+      <c r="F41" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="8">
+      <c r="D42" s="7">
         <v>12</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="E42" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G42" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H42" s="6" t="s">
+      <c r="F42" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:7">
+      <c r="A43" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="C43" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="8">
+      <c r="D43" s="7">
         <v>19</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="E43" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G43" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H43" s="10"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="B44" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="8" t="s">
+      <c r="F43" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G43" s="9"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="C44" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="8">
+      <c r="D44" s="7">
         <v>20</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="E44" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G44" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="F44" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="B45" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="8">
+      <c r="D45" s="7">
         <v>6</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="E45" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="B46" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="7" t="s">
+      <c r="F45" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G45" s="9"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="8">
+      <c r="D46" s="7">
         <v>3</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="E46" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G46" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H46" s="6" t="s">
+      <c r="F46" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="B47" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="7" t="s">
+    <row r="47" spans="1:7">
+      <c r="A47" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="C47" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="8">
+      <c r="D47" s="7">
         <v>24</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="E47" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G47" s="11">
-        <v>14000</v>
-      </c>
-      <c r="H47" s="10"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="B48" s="7"/>
+      <c r="F47" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G47" s="9"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
       <c r="C48" s="7"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="10"/>
-    </row>
-    <row r="49" spans="2:8">
-      <c r="B49" s="7"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
       <c r="C49" s="7"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="10"/>
-    </row>
-    <row r="50" spans="2:8">
-      <c r="B50" s="7"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
       <c r="C50" s="7"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="10"/>
-    </row>
-    <row r="51" spans="2:8">
-      <c r="B51" s="9"/>
-      <c r="C51" s="7"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="9"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="8"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
       <c r="D51" s="7"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="10"/>
-    </row>
-    <row r="52" spans="2:8">
-      <c r="B52" s="9"/>
-      <c r="C52" s="7"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="8"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
       <c r="D52" s="7"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="10"/>
-    </row>
-    <row r="53" spans="2:8">
-      <c r="B53" s="9"/>
-      <c r="C53" s="7"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="8"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
       <c r="D53" s="7"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="10"/>
-    </row>
-    <row r="54" spans="2:8">
-      <c r="B54" s="9"/>
-      <c r="C54" s="7"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="8"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="10"/>
-    </row>
-    <row r="55" spans="2:8">
-      <c r="B55" s="9"/>
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="2:8">
-      <c r="B56" s="9"/>
-      <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="2:8">
-      <c r="B57" s="9"/>
-      <c r="G57" s="1"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="8"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="8"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="8"/>
+      <c r="F57" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
